--- a/NetAgent/src/main/resources/NAQuarantine.xlsx
+++ b/NetAgent/src/main/resources/NAQuarantine.xlsx
@@ -19773,196 +19773,634 @@
       <c s="10" t="str" r="Y72"/>
     </row>
     <row r="73" ht="18" customHeight="0">
-      <c s="10" t="inlineStr" r="A73">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="9" r="A73">
+        <v>8257</v>
       </c>
       <c s="10" t="inlineStr" r="D73">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">AUTOMATION RV</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="F73">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 1</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="I73">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN01</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="J73">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2032</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="K73">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="12" t="inlineStr" r="L73">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="12" t="inlineStr" r="N73">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB01</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L73">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">XX</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N73">
+        <v>1.000</v>
       </c>
       <c s="10" t="inlineStr" r="O73">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEFAULTBIN</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="P73">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33159767</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="Q73">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/17/2022</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="R73">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="S73">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="T73">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/20/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S73"/>
+      <c s="10" t="str" r="T73"/>
       <c s="10" t="inlineStr" r="U73">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">WOI - 1688912</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="V73">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="W73">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="X73">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="Y73">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W73"/>
+      <c s="10" t="str" r="X73"/>
+      <c s="10" t="str" r="Y73"/>
     </row>
     <row r="74" ht="18" customHeight="0">
-      <c s="10" t="inlineStr" r="A74">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="9" r="A74">
+        <v>8258</v>
       </c>
       <c s="10" t="inlineStr" r="D74">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">AUTOMATION RV</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="F74">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 3</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="I74">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN03</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="J74">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2031</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="K74">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="12" t="inlineStr" r="L74">
-        <is>
-          <t xml:space="preserve">SubTotal :</t>
-        </is>
-      </c>
-      <c s="13" r="N74">
-        <v>61.000</v>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L74">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIAL1655440437263</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N74">
+        <v>1.000</v>
       </c>
       <c s="10" t="inlineStr" r="O74">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">AUTOMATION</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="P74">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33159750</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="Q74">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/16/2022</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="R74">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="S74">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="T74">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/20/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S74"/>
+      <c s="10" t="str" r="T74"/>
       <c s="10" t="inlineStr" r="U74">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">WOI - 1688912</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="V74">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="W74">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="X74">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="Y74">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W74"/>
+      <c s="10" t="str" r="X74"/>
+      <c s="10" t="str" r="Y74"/>
     </row>
     <row r="75" ht="18" customHeight="0">
       <c s="10" t="inlineStr" r="A75">
@@ -19997,63 +20435,255 @@
       </c>
       <c s="12" t="inlineStr" r="L75">
         <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="12" t="inlineStr" r="N75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="O75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="S75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="T75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="U75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="W75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="X75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Y75">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="18" customHeight="0">
+      <c s="10" t="inlineStr" r="A76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="D76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="12" t="inlineStr" r="L76">
+        <is>
+          <t xml:space="preserve">SubTotal :</t>
+        </is>
+      </c>
+      <c s="13" r="N76">
+        <v>63.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="S76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="T76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="U76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="W76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="X76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Y76">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="18" customHeight="0">
+      <c s="10" t="inlineStr" r="A77">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="D77">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F77">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I77">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J77">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K77">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="12" t="inlineStr" r="L77">
+        <is>
           <t xml:space="preserve">Total :</t>
         </is>
       </c>
-      <c s="13" r="N75">
-        <v>61.000</v>
-      </c>
-      <c s="10" t="inlineStr" r="O75">
+      <c s="13" r="N77">
+        <v>63.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O77">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="P75">
+      <c s="10" t="inlineStr" r="P77">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="Q75">
+      <c s="10" t="inlineStr" r="Q77">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="R75">
+      <c s="10" t="inlineStr" r="R77">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="S75">
+      <c s="10" t="inlineStr" r="S77">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="T75">
+      <c s="10" t="inlineStr" r="T77">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="U75">
+      <c s="10" t="inlineStr" r="U77">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="V75">
+      <c s="10" t="inlineStr" r="V77">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="W75">
+      <c s="10" t="inlineStr" r="W77">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="X75">
+      <c s="10" t="inlineStr" r="X77">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="Y75">
+      <c s="10" t="inlineStr" r="Y77">
         <is>
           <t xml:space="preserve"/>
         </is>
@@ -20326,13 +20956,21 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="F75:H75"/>
     <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="L77:M77"/>
   </mergeCells>
   <pageMargins left="0.75" right="0" top="0.75" bottom="1.4375" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2022 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"6/17/2022 1:42 AM 
+&amp;"-,Regular"6/19/2022 9:46 PM 
 &amp;"-,Regular"Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/NetAgent/src/main/resources/NAQuarantine.xlsx
+++ b/NetAgent/src/main/resources/NAQuarantine.xlsx
@@ -20403,287 +20403,3437 @@
       <c s="10" t="str" r="Y74"/>
     </row>
     <row r="75" ht="18" customHeight="0">
-      <c s="10" t="inlineStr" r="A75">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="9" r="A75">
+        <v>8263</v>
       </c>
       <c s="10" t="inlineStr" r="D75">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">AUTOMATION RV</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="F75">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 3</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="I75">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN03</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="J75">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2031</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="K75">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="12" t="inlineStr" r="L75">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="12" t="inlineStr" r="N75">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L75">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIAL1655444846974</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N75">
+        <v>1.000</v>
       </c>
       <c s="10" t="inlineStr" r="O75">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">AUTOMATION</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="P75">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33159757</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="Q75">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/17/2022</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="R75">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="S75">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="T75">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/20/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S75"/>
+      <c s="10" t="str" r="T75"/>
       <c s="10" t="inlineStr" r="U75">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">WOI - 1688923</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="V75">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="W75">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="X75">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="Y75">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W75"/>
+      <c s="10" t="str" r="X75"/>
+      <c s="10" t="str" r="Y75"/>
     </row>
     <row r="76" ht="18" customHeight="0">
-      <c s="10" t="inlineStr" r="A76">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="9" r="A76">
+        <v>8264</v>
       </c>
       <c s="10" t="inlineStr" r="D76">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">AUTOMATION RV</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="F76">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 3</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="I76">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN03</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="J76">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2031</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="K76">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="12" t="inlineStr" r="L76">
-        <is>
-          <t xml:space="preserve">SubTotal :</t>
-        </is>
-      </c>
-      <c s="13" r="N76">
-        <v>63.000</v>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L76">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIAL1655454393591</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N76">
+        <v>1.000</v>
       </c>
       <c s="10" t="inlineStr" r="O76">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEFAULTBIN</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="P76">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33159760</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="Q76">
         <is>
-          <t xml:space="preserve"/>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/17/2022</t>
+          </r>
         </is>
       </c>
       <c s="10" t="inlineStr" r="R76">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="S76">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="T76">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/20/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S76"/>
+      <c s="10" t="str" r="T76"/>
       <c s="10" t="inlineStr" r="U76">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">WOI - 1688923</t>
         </is>
       </c>
       <c s="10" t="inlineStr" r="V76">
         <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="W76">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="X76">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="10" t="inlineStr" r="Y76">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W76"/>
+      <c s="10" t="str" r="X76"/>
+      <c s="10" t="str" r="Y76"/>
     </row>
     <row r="77" ht="18" customHeight="0">
-      <c s="10" t="inlineStr" r="A77">
+      <c s="9" r="A77">
+        <v>8270</v>
+      </c>
+      <c s="10" t="inlineStr" r="D77">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F77">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 3</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I77">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J77">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2031</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K77">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L77">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIAL1655699373945</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N77">
+        <v>1.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O77">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">AUTOMATION</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P77">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33161237</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q77">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/19/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R77">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/21/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S77"/>
+      <c s="10" t="str" r="T77"/>
+      <c s="10" t="inlineStr" r="U77">
+        <is>
+          <t xml:space="preserve">WOI - 1688988</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V77">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W77"/>
+      <c s="10" t="str" r="X77"/>
+      <c s="10" t="str" r="Y77"/>
+    </row>
+    <row r="78" ht="18" customHeight="0">
+      <c s="9" r="A78">
+        <v>8271</v>
+      </c>
+      <c s="10" t="inlineStr" r="D78">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F78">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 3</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I78">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J78">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2031</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K78">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L78">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIAL1655704258577</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N78">
+        <v>1.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O78">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEFAULTBIN</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P78">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33161249</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q78">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/20/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R78">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/21/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S78"/>
+      <c s="10" t="str" r="T78"/>
+      <c s="10" t="inlineStr" r="U78">
+        <is>
+          <t xml:space="preserve">WOI - 1688988</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V78">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W78"/>
+      <c s="10" t="str" r="X78"/>
+      <c s="10" t="str" r="Y78"/>
+    </row>
+    <row r="79" ht="18" customHeight="0">
+      <c s="9" r="A79">
+        <v>8275</v>
+      </c>
+      <c s="10" t="inlineStr" r="D79">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F79">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 1</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I79">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN01</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J79">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2032</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K79">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB01</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L79">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIALNO0</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N79">
+        <v>1.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O79">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">AUTOMATION</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P79">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33161242</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q79">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/20/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R79">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/21/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S79"/>
+      <c s="10" t="str" r="T79"/>
+      <c s="10" t="inlineStr" r="U79">
+        <is>
+          <t xml:space="preserve">WOI - 1689005</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V79">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W79"/>
+      <c s="10" t="str" r="X79"/>
+      <c s="10" t="str" r="Y79"/>
+    </row>
+    <row r="80" ht="18" customHeight="0">
+      <c s="9" r="A80">
+        <v>8276</v>
+      </c>
+      <c s="10" t="inlineStr" r="D80">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F80">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 3</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I80">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J80">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2031</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K80">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L80">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIAL1655785714329</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N80">
+        <v>1.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O80">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">AUTOMATION</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P80">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33161332</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q80">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/20/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R80">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/21/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S80"/>
+      <c s="10" t="str" r="T80"/>
+      <c s="10" t="inlineStr" r="U80">
+        <is>
+          <t xml:space="preserve">WOI - 1689005</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V80">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W80"/>
+      <c s="10" t="str" r="X80"/>
+      <c s="10" t="str" r="Y80"/>
+    </row>
+    <row r="81" ht="18" customHeight="0">
+      <c s="9" r="A81">
+        <v>8279</v>
+      </c>
+      <c s="10" t="inlineStr" r="D81">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F81">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 1</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I81">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN01</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J81">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2032</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K81">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB01</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L81">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIALNO1</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N81">
+        <v>1.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O81">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">AUTOMATION</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P81">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33161243</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q81">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/20/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R81">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/21/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S81"/>
+      <c s="10" t="str" r="T81"/>
+      <c s="10" t="inlineStr" r="U81">
+        <is>
+          <t xml:space="preserve">WOI - 1689016</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V81">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W81"/>
+      <c s="10" t="str" r="X81"/>
+      <c s="10" t="str" r="Y81"/>
+    </row>
+    <row r="82" ht="18" customHeight="0">
+      <c s="9" r="A82">
+        <v>8280</v>
+      </c>
+      <c s="10" t="inlineStr" r="D82">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F82">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 3</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I82">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J82">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2031</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K82">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L82">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIAL1655786896080</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N82">
+        <v>1.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O82">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEFAULTBIN</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P82">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33161337</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q82">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/20/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R82">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/21/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S82"/>
+      <c s="10" t="str" r="T82"/>
+      <c s="10" t="inlineStr" r="U82">
+        <is>
+          <t xml:space="preserve">WOI - 1689016</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V82">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W82"/>
+      <c s="10" t="str" r="X82"/>
+      <c s="10" t="str" r="Y82"/>
+    </row>
+    <row r="83" ht="18" customHeight="0">
+      <c s="9" r="A83">
+        <v>8282</v>
+      </c>
+      <c s="10" t="inlineStr" r="D83">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F83">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 1</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I83">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN01</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J83">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2032</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K83">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB01</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L83">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIALNO2</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N83">
+        <v>1.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O83">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">AUTOMATION</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P83">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33161244</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q83">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/20/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R83">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/21/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S83"/>
+      <c s="10" t="str" r="T83"/>
+      <c s="10" t="inlineStr" r="U83">
+        <is>
+          <t xml:space="preserve">WOI - 1689032</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V83">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W83"/>
+      <c s="10" t="str" r="X83"/>
+      <c s="10" t="str" r="Y83"/>
+    </row>
+    <row r="84" ht="18" customHeight="0">
+      <c s="9" r="A84">
+        <v>8283</v>
+      </c>
+      <c s="10" t="inlineStr" r="D84">
+        <is>
+          <t xml:space="preserve">AUTOMATION RV</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F84">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Part 3</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I84">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">MN03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J84">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">04/01/2031</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K84">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">LB03</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="L84">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">SERIAL1655788203752</t>
+          </r>
+        </is>
+      </c>
+      <c s="11" r="N84">
+        <v>1.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O84">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">  </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">DEFAULTBIN</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P84">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">33161339</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q84">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/21/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R84">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">automation</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">         </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">06/21/2022</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="S84"/>
+      <c s="10" t="str" r="T84"/>
+      <c s="10" t="inlineStr" r="U84">
+        <is>
+          <t xml:space="preserve">WOI - 1689032</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V84">
+        <is>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve"> </t>
+          </r>
+          <r>
+            <rPr>
+              <b val="0"/>
+              <i val="0"/>
+              <strike val="0"/>
+              <u val="none"/>
+              <sz val="9"/>
+              <color rgb="FF000000"/>
+              <rFont val="Arial"/>
+            </rPr>
+            <t xml:space="preserve">Cycle Count</t>
+          </r>
+        </is>
+      </c>
+      <c s="10" t="str" r="W84"/>
+      <c s="10" t="str" r="X84"/>
+      <c s="10" t="str" r="Y84"/>
+    </row>
+    <row r="85" ht="18" customHeight="0">
+      <c s="10" t="inlineStr" r="A85">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="D77">
+      <c s="10" t="inlineStr" r="D85">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="F77">
+      <c s="10" t="inlineStr" r="F85">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="I77">
+      <c s="10" t="inlineStr" r="I85">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="J77">
+      <c s="10" t="inlineStr" r="J85">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="K77">
+      <c s="10" t="inlineStr" r="K85">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="12" t="inlineStr" r="L77">
+      <c s="12" t="inlineStr" r="L85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="12" t="inlineStr" r="N85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="O85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="S85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="T85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="U85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="W85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="X85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Y85">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="18" customHeight="0">
+      <c s="10" t="inlineStr" r="A86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="D86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="12" t="inlineStr" r="L86">
+        <is>
+          <t xml:space="preserve">SubTotal :</t>
+        </is>
+      </c>
+      <c s="13" r="N86">
+        <v>73.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="P86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="S86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="T86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="U86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="V86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="W86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="X86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Y86">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="18" customHeight="0">
+      <c s="10" t="inlineStr" r="A87">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="D87">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="F87">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="I87">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="J87">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="K87">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="12" t="inlineStr" r="L87">
         <is>
           <t xml:space="preserve">Total :</t>
         </is>
       </c>
-      <c s="13" r="N77">
-        <v>63.000</v>
-      </c>
-      <c s="10" t="inlineStr" r="O77">
+      <c s="13" r="N87">
+        <v>73.000</v>
+      </c>
+      <c s="10" t="inlineStr" r="O87">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="P77">
+      <c s="10" t="inlineStr" r="P87">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="Q77">
+      <c s="10" t="inlineStr" r="Q87">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="R77">
+      <c s="10" t="inlineStr" r="R87">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="S77">
+      <c s="10" t="inlineStr" r="S87">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="T77">
+      <c s="10" t="inlineStr" r="T87">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="U77">
+      <c s="10" t="inlineStr" r="U87">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="V77">
+      <c s="10" t="inlineStr" r="V87">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="W77">
+      <c s="10" t="inlineStr" r="W87">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="X77">
+      <c s="10" t="inlineStr" r="X87">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="10" t="inlineStr" r="Y77">
+      <c s="10" t="inlineStr" r="Y87">
         <is>
           <t xml:space="preserve"/>
         </is>
@@ -20964,14 +24114,54 @@
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="F77:H77"/>
     <mergeCell ref="L77:M77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="L87:M87"/>
   </mergeCells>
   <pageMargins left="0.75" right="0" top="0.75" bottom="1.4375" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2022 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"6/19/2022 9:46 PM 
-&amp;"-,Regular"Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
+&amp;"-,Regular"6/21/2022 12:43 AM 
+&amp;"-,Regular"Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page &amp;P of &amp;</oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>
